--- a/Örnek 11 - Eğer - Koşullu Biçimlendirme.xlsx
+++ b/Örnek 11 - Eğer - Koşullu Biçimlendirme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubo_\OneDrive\Masaüstü\excel ödevi 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{115886A0-F8B9-420C-8BB5-7B55A5621614}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C86948B-0364-4F43-A77C-10E1282B63EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="www.tugrulaktas.com" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>KARNE</t>
   </si>
@@ -139,12 +141,18 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>YBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -361,6 +369,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -372,45 +419,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,11 +757,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F19" sqref="F19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -764,34 +772,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -821,7 +829,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -846,11 +854,17 @@
         <f>SUM(D4:E4,F4:G4)</f>
         <v>202</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="1"/>
+      <c r="I4" s="8">
+        <f>AVERAGE(D4:G4)</f>
+        <v>50.5</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f>IF(I4&gt;49, "GEÇTİ", "KALDI")</f>
+        <v>GEÇTİ</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -873,19 +887,25 @@
         <f t="shared" ref="H5:H10" si="0">SUM(D5:G5)</f>
         <v>236</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="1"/>
-      <c r="L5" s="11" t="s">
+      <c r="I5" s="8">
+        <f t="shared" ref="I5:I11" si="1">AVERAGE(D5:G5)</f>
+        <v>59</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" ref="J5:J11" si="2">IF(I5&gt;49, "GEÇTİ", "KALDI")</f>
+        <v>GEÇTİ</v>
+      </c>
+      <c r="L5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -908,17 +928,23 @@
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="1"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
+      <c r="I6" s="8">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GEÇTİ</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -941,17 +967,23 @@
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="1"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
+      <c r="I7" s="8">
+        <f t="shared" si="1"/>
+        <v>36.25</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>KALDI</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -974,17 +1006,23 @@
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="1"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
+      <c r="I8" s="8">
+        <f t="shared" si="1"/>
+        <v>59.5</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GEÇTİ</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1007,11 +1045,17 @@
         <f t="shared" si="0"/>
         <v>354</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="8">
+        <f t="shared" si="1"/>
+        <v>88.5</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GEÇTİ</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1034,11 +1078,17 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="1"/>
+      <c r="I10" s="8">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GEÇTİ</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1061,101 +1111,151 @@
         <f>SUM(D11:G11)</f>
         <v>339</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="1"/>
-      <c r="L11" s="13" t="s">
+      <c r="I11" s="8">
+        <f t="shared" si="1"/>
+        <v>84.75</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GEÇTİ</v>
+      </c>
+      <c r="L11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
     </row>
     <row r="12" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="7">
+        <f>SUM(D4:D11)</f>
+        <v>510</v>
+      </c>
+      <c r="E12" s="7">
+        <f>SUM(E4:E11)</f>
+        <v>522</v>
+      </c>
+      <c r="F12" s="7">
+        <f>SUM(F4:F11)</f>
+        <v>535</v>
+      </c>
+      <c r="G12" s="7">
+        <f>SUM(G4:G11)</f>
+        <v>527</v>
+      </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="L12" s="12" t="s">
+      <c r="I12" s="21">
+        <f>SUM(I4:I11)</f>
+        <v>523.5</v>
+      </c>
+      <c r="J12" s="22"/>
+      <c r="L12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
     </row>
     <row r="13" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="7">
+        <f>AVERAGE(D4:D12)</f>
+        <v>113.33333333333333</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" ref="E13:G13" si="3">AVERAGE(E4:E12)</f>
+        <v>116</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="3"/>
+        <v>118.88888888888889</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="3"/>
+        <v>117.11111111111111</v>
+      </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="L13" s="12" t="s">
+      <c r="I13" s="21">
+        <f>SUM(I5:I12)</f>
+        <v>996.5</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="L13" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
     </row>
     <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="F17" s="23">
+        <v>20215070019</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="F18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="F19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L5:Q8"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="F17:H17"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C2:H2"/>
@@ -1164,14 +1264,6 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L5:Q8"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="F17:H17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
